--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK03001_社員一覧画面.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK03001_社員一覧画面.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196889B8-380B-4DD0-851C-602F7B4FC21E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE2C1E6-DB5A-4989-A955-04D661F60429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="1010" windowWidth="11120" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="1310" windowWidth="11120" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="5" r:id="rId1"/>
@@ -211,25 +211,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>全社員の社員番号と名前が正しく表示されている</t>
-    <rPh sb="0" eb="3">
-      <t>ゼンシャイン</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>シャインバンゴウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>戻るボタンを押した際、月別一覧画面へ戻る</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
@@ -289,6 +270,28 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBに登録されている全社員の社員番号と名前が正しく表示されているか</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ゼンシャイン</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2025,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14"/>
@@ -2040,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
@@ -2055,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -2070,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -2407,6 +2410,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
@@ -2419,28 +2440,11 @@
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="F34:I34"/>
     <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2933,16 +2937,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
@@ -2955,14 +2957,16 @@
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK03001_社員一覧画面.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK03001_社員一覧画面.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE2C1E6-DB5A-4989-A955-04D661F60429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA9843E-92BE-486C-9AB1-2F62DF68B6A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="1310" windowWidth="11120" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7040" yWindow="1160" windowWidth="11120" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="5" r:id="rId1"/>
@@ -249,49 +249,49 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>社員名がリンクになっており、押すと勤務報告書画面へ遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガメン</t>
+    <t>DBに登録されている全社員の社員番号と名前が正しく表示されているか</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ゼンシャイン</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タダ</t>
     </rPh>
     <rPh sb="25" eb="27">
-      <t>センイ</t>
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>DBに登録されている全社員の社員番号と名前が正しく表示されているか</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ゼンシャイン</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>シャインバンゴウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>タダ</t>
+    <t>社員名がボタンになっており、押すと勤務報告書画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
     </rPh>
     <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1941,7 +1941,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -2028,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14"/>
@@ -2043,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
@@ -2410,12 +2410,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
@@ -2428,18 +2434,12 @@
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2937,14 +2937,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
@@ -2957,16 +2959,14 @@
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK03001_社員一覧画面.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK03001_社員一覧画面.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA9843E-92BE-486C-9AB1-2F62DF68B6A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="1160" windowWidth="11120" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7035" yWindow="1155" windowWidth="11115" windowHeight="8865"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="5" r:id="rId1"/>
     <sheet name="記入例" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -194,16 +193,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面レイアウトが崩れていない</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>クズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>社員一覧</t>
     <rPh sb="0" eb="4">
       <t>シャインイチラン</t>
@@ -249,49 +238,114 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>DBに登録されている全社員の社員番号と名前が正しく表示されているか</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ゼンシャイン</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>シャインバンゴウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
+    <t>画面レイアウトが崩れていないか</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>社員名がボタンになっており、押すと勤務報告書画面へ遷移する</t>
+    <t>社員名ボタンを押した際、押下した社員名の勤務報告書画面へ遷移する</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="7" eb="8">
       <t>オ</t>
     </rPh>
-    <rPh sb="17" eb="19">
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
       <t>キンム</t>
     </rPh>
-    <rPh sb="19" eb="22">
+    <rPh sb="22" eb="25">
       <t>ホウコクショ</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="25" eb="27">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="28" eb="30">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザテーブルに存在する全ての社員番号と社員名（氏名（姓）、氏名（名））が正しく表示されているか</t>
+    <rPh sb="8" eb="10">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名（氏名（姓）、氏名（名））ボタンが表示・活性であるか</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カッセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -299,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,7 +561,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F14E257-A368-4B0C-AA0C-3173096D257A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F14E257-A368-4B0C-AA0C-3173096D257A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -582,7 +636,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07B1266-DBA0-4D77-A6E5-ED75BBB625DA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07B1266-DBA0-4D77-A6E5-ED75BBB625DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -662,7 +716,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B1200A-DAB7-4459-9857-02C2460637B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B1200A-DAB7-4459-9857-02C2460637B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -737,7 +791,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C77B4A7-B71D-4A54-A379-28755E0A6CA8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C77B4A7-B71D-4A54-A379-28755E0A6CA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -812,7 +866,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E776A4D-5595-4734-97F3-D0E9328F711D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E776A4D-5595-4734-97F3-D0E9328F711D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1077,7 +1131,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E979C533-10B3-4C46-8EB1-E61036F08EE1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E979C533-10B3-4C46-8EB1-E61036F08EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,24 +1990,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A29CC4-21D6-4766-80DA-46B5F250954D}">
-  <dimension ref="A1:I36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="80.58203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.58203125" style="12" customWidth="1"/>
-    <col min="6" max="9" width="12.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="80.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="12" customWidth="1"/>
+    <col min="6" max="9" width="12.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1965,7 +2019,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1977,15 +2031,15 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -2008,12 +2062,12 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
@@ -2023,12 +2077,12 @@
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14"/>
@@ -2038,12 +2092,12 @@
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
@@ -2053,12 +2107,12 @@
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -2068,12 +2122,12 @@
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -2083,11 +2137,13 @@
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -2096,344 +2152,8 @@
       <c r="H12" s="17"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7">
-        <v>9</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7">
-        <v>10</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7">
-        <v>11</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7">
-        <v>12</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7">
-        <v>13</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="7">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7">
-        <v>15</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7">
-        <v>16</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7">
-        <v>17</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="7">
-        <v>18</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="7">
-        <v>19</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7">
-        <v>20</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="7">
-        <v>21</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="7">
-        <v>22</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="7">
-        <v>23</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="7">
-        <v>24</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="7">
-        <v>25</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="7">
-        <v>26</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="7">
-        <v>27</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="7">
-        <v>28</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="7">
-        <v>29</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="7">
-        <v>30</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="18"/>
-    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
+  <mergeCells count="6">
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
@@ -2449,7 +2169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD950AC-5BFA-4523-AC2A-7AACD5994DEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2457,16 +2177,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="80.58203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.58203125" style="12" customWidth="1"/>
-    <col min="6" max="9" width="12.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="80.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="12" customWidth="1"/>
+    <col min="6" max="9" width="12.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2478,7 +2198,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2490,7 +2210,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2498,7 +2218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -2521,7 +2241,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -2542,7 +2262,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -2563,7 +2283,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -2584,7 +2304,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>4</v>
       </c>
@@ -2597,7 +2317,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>5</v>
       </c>
@@ -2610,7 +2330,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>6</v>
       </c>
@@ -2623,7 +2343,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>7</v>
       </c>
@@ -2636,7 +2356,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -2649,7 +2369,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>9</v>
       </c>
@@ -2662,7 +2382,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>10</v>
       </c>
@@ -2675,7 +2395,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>11</v>
       </c>
@@ -2688,7 +2408,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>12</v>
       </c>
@@ -2701,7 +2421,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>13</v>
       </c>
@@ -2714,7 +2434,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>14</v>
       </c>
@@ -2727,7 +2447,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>15</v>
       </c>
@@ -2740,7 +2460,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>16</v>
       </c>
@@ -2753,7 +2473,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="7">
         <v>17</v>
       </c>
@@ -2766,7 +2486,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
         <v>18</v>
       </c>
@@ -2779,7 +2499,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="7">
         <v>19</v>
       </c>
@@ -2792,7 +2512,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="7">
         <v>20</v>
       </c>
@@ -2805,7 +2525,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
         <v>21</v>
       </c>
@@ -2818,7 +2538,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
         <v>22</v>
       </c>
@@ -2831,7 +2551,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="7">
         <v>23</v>
       </c>
@@ -2844,7 +2564,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="7">
         <v>24</v>
       </c>
@@ -2857,7 +2577,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="7">
         <v>25</v>
       </c>
@@ -2870,7 +2590,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="7">
         <v>26</v>
       </c>
@@ -2883,7 +2603,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="7">
         <v>27</v>
       </c>
@@ -2896,7 +2616,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="7">
         <v>28</v>
       </c>
@@ -2909,7 +2629,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="7">
         <v>29</v>
       </c>
@@ -2922,7 +2642,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="7">
         <v>30</v>
       </c>

--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK03001_社員一覧画面.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK03001_社員一覧画面.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23427"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8184534-404A-4920-BF6B-86002F54702E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7035" yWindow="1155" windowWidth="11115" windowHeight="8865"/>
+    <workbookView xWindow="7035" yWindow="1155" windowWidth="11115" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="5" r:id="rId1"/>
     <sheet name="記入例" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -29,6 +39,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>高橋</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新者</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田中</t>
+  </si>
+  <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
@@ -36,13 +63,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>更新者</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
       <t>コウシンビ</t>
@@ -50,6 +70,227 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員一覧</t>
+    <rPh sb="0" eb="4">
+      <t>シャインイチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認内容</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認日</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認者</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面レイアウトが崩れていないか</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>各社員のボタン・ログアウトボタンが右寄りになっている又は被っている。</t>
+  </si>
+  <si>
+    <t>ユーザテーブルに存在する全ての社員番号と社員名（氏名（姓）、氏名（名））が正しく表示されているか</t>
+    <rPh sb="8" eb="10">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>社員名ボタンを押した際、押下した社員名の勤務報告書画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻るボタンを押した際、月別一覧画面へ戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ツキベツイチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウトボタンを押した際、ログイン画面へ遷移する</t>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名（氏名（姓）、氏名（名））ボタンが表示・活性であるか</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カッセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>木村靖二</t>
     <rPh sb="0" eb="2">
       <t>キムラ</t>
@@ -63,62 +304,20 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>No</t>
+    <t>ログイン</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>確認内容</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>確認日</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>確認者</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>結果</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>機能名</t>
-    <rPh sb="0" eb="3">
-      <t>キノウメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン</t>
+    <t>「ユーザID」は8文字を超える入力はできないこと。</t>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -130,19 +329,6 @@
   </si>
   <si>
     <t>OK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ユーザID」は8文字を超える入力はできないこと。</t>
-    <rPh sb="9" eb="11">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -185,176 +371,12 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>高橋</t>
-    <rPh sb="0" eb="2">
-      <t>タカハシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員一覧</t>
-    <rPh sb="0" eb="4">
-      <t>シャインイチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>戻るボタンを押した際、月別一覧画面へ戻る</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ツキベツイチラン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログアウトボタンを押した際、ログイン画面へ遷移する</t>
-    <rPh sb="9" eb="10">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面レイアウトが崩れていないか</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>クズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名ボタンを押した際、押下した社員名の勤務報告書画面へ遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザテーブルに存在する全ての社員番号と社員名（氏名（姓）、氏名（名））が正しく表示されているか</t>
-    <rPh sb="8" eb="10">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>シャインバンゴウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名（氏名（姓）、氏名（名））ボタンが表示・活性であるか</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カッセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -513,6 +535,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,7 +586,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F14E257-A368-4B0C-AA0C-3173096D257A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F14E257-A368-4B0C-AA0C-3173096D257A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -636,7 +661,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07B1266-DBA0-4D77-A6E5-ED75BBB625DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07B1266-DBA0-4D77-A6E5-ED75BBB625DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -716,7 +741,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B1200A-DAB7-4459-9857-02C2460637B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B1200A-DAB7-4459-9857-02C2460637B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -791,7 +816,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C77B4A7-B71D-4A54-A379-28755E0A6CA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C77B4A7-B71D-4A54-A379-28755E0A6CA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +891,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E776A4D-5595-4734-97F3-D0E9328F711D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E776A4D-5595-4734-97F3-D0E9328F711D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1131,7 +1156,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E979C533-10B3-4C46-8EB1-E61036F08EE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E979C533-10B3-4C46-8EB1-E61036F08EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,15 +2015,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="6" topLeftCell="B7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="80.625" style="1" customWidth="1"/>
@@ -2007,150 +2032,192 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5">
       <c r="F2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" s="5">
         <v>44123</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="I2" s="16">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="C7" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="7">
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="C8" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="7">
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="7">
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="7">
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="C12" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2169,7 +2236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2177,7 +2244,7 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="80.625" style="1" customWidth="1"/>
@@ -2186,125 +2253,125 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="F2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" s="5">
         <v>43810</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="E6" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C7" s="15">
         <v>43810</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="31.5">
       <c r="A8" s="7">
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C8" s="15">
         <v>43810</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="31.5">
       <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C9" s="15">
         <v>43810</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="7">
         <v>4</v>
       </c>
@@ -2312,12 +2379,12 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="7">
         <v>5</v>
       </c>
@@ -2325,12 +2392,12 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="7">
         <v>6</v>
       </c>
@@ -2338,12 +2405,12 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="7">
         <v>7</v>
       </c>
@@ -2351,12 +2418,12 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -2364,12 +2431,12 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="7">
         <v>9</v>
       </c>
@@ -2377,12 +2444,12 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="7">
         <v>10</v>
       </c>
@@ -2390,12 +2457,12 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="7">
         <v>11</v>
       </c>
@@ -2403,12 +2470,12 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="7">
         <v>12</v>
       </c>
@@ -2416,12 +2483,12 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="7">
         <v>13</v>
       </c>
@@ -2429,12 +2496,12 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="7">
         <v>14</v>
       </c>
@@ -2442,12 +2509,12 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="7">
         <v>15</v>
       </c>
@@ -2455,12 +2522,12 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="7">
         <v>16</v>
       </c>
@@ -2468,12 +2535,12 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="7">
         <v>17</v>
       </c>
@@ -2481,12 +2548,12 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="7">
         <v>18</v>
       </c>
@@ -2494,12 +2561,12 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="7">
         <v>19</v>
       </c>
@@ -2507,12 +2574,12 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="7">
         <v>20</v>
       </c>
@@ -2520,12 +2587,12 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="7">
         <v>21</v>
       </c>
@@ -2533,12 +2600,12 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="7">
         <v>22</v>
       </c>
@@ -2546,12 +2613,12 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="7">
         <v>23</v>
       </c>
@@ -2559,12 +2626,12 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="7">
         <v>24</v>
       </c>
@@ -2572,12 +2639,12 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="7">
         <v>25</v>
       </c>
@@ -2585,12 +2652,12 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="7">
         <v>26</v>
       </c>
@@ -2598,12 +2665,12 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="7">
         <v>27</v>
       </c>
@@ -2611,12 +2678,12 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="7">
         <v>28</v>
       </c>
@@ -2624,12 +2691,12 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="7">
         <v>29</v>
       </c>
@@ -2637,12 +2704,12 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="7">
         <v>30</v>
       </c>
@@ -2650,23 +2717,21 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="18"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
@@ -2679,14 +2744,16 @@
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
